--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>FirstName1</t>
   </si>
@@ -97,12 +97,19 @@
   </si>
   <si>
     <t>LastName13</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -422,111 +429,117 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.6640625"/>
+    <col min="2" max="2" customWidth="true" width="15.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>25</v>
       </c>
     </row>
